--- a/responses.xlsx
+++ b/responses.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t xml:space="preserve">Field of Interest</t>
   </si>
@@ -37,73 +37,85 @@
     <t xml:space="preserve">Amit Sheth</t>
   </si>
   <si>
-    <t xml:space="preserve">Amit Sheth has expertise in Design Thinking and is a professor at Plaksha University.</t>
+    <t xml:space="preserve">Amit Sheth has worked in the field of design thinking for many years and is currently pursuing research regarding the same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Malik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Malik has worked in the field of philosophy for many years and has experience in design thinking and innovation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brainerd Prince</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brainerd Prince has worked in the field of philosophy for many years and has experience in design thinking and innovation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">philosophy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Malik has worked in the field of philosophy for many years and is currently pursuing research regarding the same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brainerd Prince has worked in the field of philosophy for many years and has published several papers regarding the same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">applied mathematics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amrik Sen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amrik Sen has worked in the field of applied mathematics for many years and is currently pursuing research regarding the same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOT systems</t>
   </si>
   <si>
     <t xml:space="preserve">Amruta R Behra</t>
   </si>
   <si>
-    <t xml:space="preserve">Amruta R Behra has expertise in IOT Systems, which is closely related to Design Thinking and Innovation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">philosophy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditya Malik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditya Malik has worked in the field of philosophy for many years and has extensive experience in the area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brainerd Prince</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brainerd Prince has worked in the field of philosophy for many years and has extensive experience in the area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">applied mathematics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amrik Sen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amrik Sen has been a professor in the field of Applied Mathematics for many years and is currently pursuing research regarding the same.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOT systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amruta R Behra has worked in the field of IOT systems for a long time and is currently researching in the field.</t>
+    <t xml:space="preserve">Prof. Amruta R Behra has worked in the field of IOT systems for many years and is currently pursuing research regarding the same.</t>
   </si>
   <si>
     <t xml:space="preserve">Anupam Sobti</t>
   </si>
   <si>
-    <t xml:space="preserve">Anupam Sobti has research interests at the intersection of computer vision, machine learning and embedded systems which is relevant to the field of IOT systems.</t>
+    <t xml:space="preserve">Prof. Anupam Sobti has worked in the field of IOT systems and machine learning for many years and has multiple publications regarding the same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specializes in Design Thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specializes in IOT Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is trained in Philosophy, Archaeology, Religious Studies, History, and Social Anthropology and has a doctorate and Habilitation (professorial degree) in South Asian Religions and Modern Indian Studies from the University of Heidelberg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is a Lecturer of Applied Math and Postdoctoral Fellow at Harvard University, USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is a Faculty at FLAME University, Pune, India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Amruta R Behra specializes in IOT systems.</t>
   </si>
   <si>
     <t xml:space="preserve">Embedded systems and machine learning</t>
   </si>
   <si>
-    <t xml:space="preserve">Anupam Sobti has research interests at the intersection of computer vision, machine learning and embedded systems and has experience building systems for low-cost health diagnostics, smart agriculture and sustainability sensing for buildings, rivers, forests, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amruta R. Behra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amruta R. Behra specializes in IOT systems and has research interests in the areas of smart sensors, assistive devices, wearable health monitoring systems, etc.</t>
+    <t xml:space="preserve">My research interest lies at the intersection of computer vision, machine learning and embedded systems. Smart sensors, assistive devices, wearable health monitoring systems, etc. require robust and latency-sensitive sensing and actuation. Therefore, these applications require innovation across sensing techniques, perception algorithms and energy optimization techniques in software and hardware.</t>
   </si>
   <si>
     <t xml:space="preserve">Thermodynamics</t>
   </si>
   <si>
-    <t xml:space="preserve">Dhiraj Sinha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dhiraj Sinha has expertise in Thermodynamics and electromechanical systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amruta R Behra has expertise in IOT Systems and Embedded systems and machine learning.</t>
+    <t xml:space="preserve">Dr. Shashikant Pawar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Shashikant Pawar is a Mechanical Engineer by training and profession and specializes in Fluid Mechanics and Heat Transfer. His research interests include Fluid Dynamics and Heat Transfer, Buoyancy driven (environmental) turbulent flows, Fluid dynamics and heat transfer of Bio-inspired systems, Light propagation in turbulent media, and Engineering Education, which are all related to Thermodynamics.</t>
   </si>
   <si>
     <t xml:space="preserve">cyber security</t>
@@ -112,22 +124,19 @@
     <t xml:space="preserve">Gopi</t>
   </si>
   <si>
-    <t xml:space="preserve">Gopi has experience in Operating Systems and Cybersecurity</t>
+    <t xml:space="preserve">Gopi has experience in operating systems and cybersecurity</t>
   </si>
   <si>
     <t xml:space="preserve">micro and macro economics</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. Shashikant Pawar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Shashikant Pawar is a postdoctoral research fellow at Indian Institute of Management Ahmedabad and has a Ph.D. in Economics from Erasmus University Rotterdam. He has expertise in working with major Indian labor-force and employment surveys, industrial surveys, and judicial data, and has evaluated the quantitative contribution of enforcement of credit contracts and labor market frictions in explaining the per capita income disparities across Indian States.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Tapas Pandit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr. Tapas Pandit recently joined Plaksha University as an assistant professor in communication security. His research interests include quantum computing, designing security protocols in post-quantum settings, blockchain, and online voting schemes. He has a M.Tech and a Ph.D. in computer science from ISI Kolkata, and worked on quantum computing and designing post-quantum cryptosystems as a postdoctoral researcher at IISc Bangalore.</t>
+    <t xml:space="preserve">Dr. Shashikant Pawar has expertise in working with major Indian labor-force and employment surveys, industrial surveys, and judicial data - including PLFS, NSS Employment and Unemployment Surveys, ASI, and NJDG datasets. He has also developed a dynamic heterogeneous-agents model for developing countries which links financial development to per capita income.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistant Professor of Economics, Plaksha University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistant Professor of Economics, Plaksha University has a Ph.D. in Economics from Erasmus University Rotterdam and a M.A. in Economics from Delhi School of Economics. They specialize in Financial Economics, Macrofinance, Financial Disclosure and Reporting, Labor Economics, Education, Development Economics, Quantitative Marketing, and Strategic Management.</t>
   </si>
   <si>
     <t xml:space="preserve">biology, preferably genetics</t>
@@ -136,7 +145,13 @@
     <t xml:space="preserve">Manoj Kannan</t>
   </si>
   <si>
-    <t xml:space="preserve">Manoj Kannan has experience in the field of genetics with a doctorate in the same.</t>
+    <t xml:space="preserve">Manoj Kannan is a Doctoral Researcher at the National Cancer Institute, Frederick and specializes in Genetics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shashikant Pawar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shashikant Pawar is an Associate Professor at Plaksha University and specializes in Fluid Dynamics and Heat Transfer.</t>
   </si>
 </sst>
 </file>
@@ -218,8 +233,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,193 +263,270 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="194.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="194.21"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="0" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="0" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="0" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t xml:space="preserve">Field of Interest</t>
   </si>
   <si>
+    <t xml:space="preserve">Expected Response</t>
+  </si>
+  <si>
     <t xml:space="preserve">Actual Response</t>
   </si>
   <si>
@@ -37,37 +40,31 @@
     <t xml:space="preserve">Amit Sheth</t>
   </si>
   <si>
-    <t xml:space="preserve">Amit Sheth has worked in the field of design thinking for many years and is currently pursuing research regarding the same.</t>
+    <t xml:space="preserve">Specializes in Design Thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">philosophy</t>
   </si>
   <si>
     <t xml:space="preserve">Aditya Malik</t>
   </si>
   <si>
-    <t xml:space="preserve">Aditya Malik has worked in the field of philosophy for many years and has experience in design thinking and innovation.</t>
+    <t xml:space="preserve">He is trained in Philosophy, Archaeology, Religious Studies, History, and Social Anthropology and has a doctorate and Habilitation (professorial degree) in South Asian Religions and Modern Indian Studies from the University of Heidelberg.</t>
   </si>
   <si>
     <t xml:space="preserve">Brainerd Prince</t>
   </si>
   <si>
-    <t xml:space="preserve">Brainerd Prince has worked in the field of philosophy for many years and has experience in design thinking and innovation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">philosophy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aditya Malik has worked in the field of philosophy for many years and is currently pursuing research regarding the same.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brainerd Prince has worked in the field of philosophy for many years and has published several papers regarding the same.</t>
-  </si>
-  <si>
     <t xml:space="preserve">applied mathematics</t>
   </si>
   <si>
     <t xml:space="preserve">Amrik Sen</t>
   </si>
   <si>
-    <t xml:space="preserve">Amrik Sen has worked in the field of applied mathematics for many years and is currently pursuing research regarding the same.</t>
+    <t xml:space="preserve">He is a Lecturer of Applied Math and Postdoctoral Fellow at Harvard University, USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is a Faculty at FLAME University, Pune, India</t>
   </si>
   <si>
     <t xml:space="preserve">IOT systems</t>
@@ -76,36 +73,15 @@
     <t xml:space="preserve">Amruta R Behra</t>
   </si>
   <si>
-    <t xml:space="preserve">Prof. Amruta R Behra has worked in the field of IOT systems for many years and is currently pursuing research regarding the same.</t>
+    <t xml:space="preserve">Prof. Amruta R Behra specializes in IOT systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedded systems and machine learning</t>
   </si>
   <si>
     <t xml:space="preserve">Anupam Sobti</t>
   </si>
   <si>
-    <t xml:space="preserve">Prof. Anupam Sobti has worked in the field of IOT systems and machine learning for many years and has multiple publications regarding the same.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specializes in Design Thinking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specializes in IOT Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is trained in Philosophy, Archaeology, Religious Studies, History, and Social Anthropology and has a doctorate and Habilitation (professorial degree) in South Asian Religions and Modern Indian Studies from the University of Heidelberg.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is a Lecturer of Applied Math and Postdoctoral Fellow at Harvard University, USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is a Faculty at FLAME University, Pune, India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof. Amruta R Behra specializes in IOT systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embedded systems and machine learning</t>
-  </si>
-  <si>
     <t xml:space="preserve">My research interest lies at the intersection of computer vision, machine learning and embedded systems. Smart sensors, assistive devices, wearable health monitoring systems, etc. require robust and latency-sensitive sensing and actuation. Therefore, these applications require innovation across sensing techniques, perception algorithms and energy optimization techniques in software and hardware.</t>
   </si>
   <si>
@@ -115,7 +91,13 @@
     <t xml:space="preserve">Dr. Shashikant Pawar</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. Shashikant Pawar is a Mechanical Engineer by training and profession and specializes in Fluid Mechanics and Heat Transfer. His research interests include Fluid Dynamics and Heat Transfer, Buoyancy driven (environmental) turbulent flows, Fluid dynamics and heat transfer of Bio-inspired systems, Light propagation in turbulent media, and Engineering Education, which are all related to Thermodynamics.</t>
+    <t xml:space="preserve">Specializes in Fluid Mechanics and Heat Transfer, with research interests in the areas of Environmental Flows, Microclimate Studies, Bio-inspired Energy-efficient and Sustainable Systems, Light Propagation through Turbulent Media, and Engineering Education.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhiraj Sinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specializes in Thermodynamics and electromechanical systems.</t>
   </si>
   <si>
     <t xml:space="preserve">cyber security</t>
@@ -133,25 +115,25 @@
     <t xml:space="preserve">Dr. Shashikant Pawar has expertise in working with major Indian labor-force and employment surveys, industrial surveys, and judicial data - including PLFS, NSS Employment and Unemployment Surveys, ASI, and NJDG datasets. He has also developed a dynamic heterogeneous-agents model for developing countries which links financial development to per capita income.</t>
   </si>
   <si>
+    <t xml:space="preserve">Kriti Khanna</t>
+  </si>
+  <si>
     <t xml:space="preserve">Assistant Professor of Economics, Plaksha University</t>
   </si>
   <si>
-    <t xml:space="preserve">Assistant Professor of Economics, Plaksha University has a Ph.D. in Economics from Erasmus University Rotterdam and a M.A. in Economics from Delhi School of Economics. They specialize in Financial Economics, Macrofinance, Financial Disclosure and Reporting, Labor Economics, Education, Development Economics, Quantitative Marketing, and Strategic Management.</t>
+    <t xml:space="preserve">Assistant Professor of Economics, Plaksha University has a Ph.D. in Economics from Erasmus University Rotterdam and a M.A. in Economics from Delhi School of Economics. They specialize in Macrofinance, Financial Disclosure and Reporting, Labor Economics, Education, Development Economics, Quantitative Marketing, and Strategic Management.</t>
   </si>
   <si>
     <t xml:space="preserve">biology, preferably genetics</t>
   </si>
   <si>
+    <t xml:space="preserve">Dr. Shashikant Pawar is a Mechanical Engineer by training and profession, but his research interests lie in the areas of Environmental Flows, Microclimate Studies, Bio-inspired Energy-efficient and Sustainable Systems, Light Propagation through Turbulent Media, and Engineering Education, which are all related to biology.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manoj Kannan</t>
   </si>
   <si>
-    <t xml:space="preserve">Manoj Kannan is a Doctoral Researcher at the National Cancer Institute, Frederick and specializes in Genetics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shashikant Pawar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shashikant Pawar is an Associate Professor at Plaksha University and specializes in Fluid Dynamics and Heat Transfer.</t>
+    <t xml:space="preserve">Manoj Kannan is a professor specializing in Genetics, making him the ideal person to speak to regarding biology, particularly genetics.</t>
   </si>
 </sst>
 </file>
@@ -263,17 +245,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="194.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="194.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -286,249 +268,195 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
